--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.2_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3034234982330338</v>
+        <v>0.3284234982330339</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30342349823303383, 'ngram_match_score': 0.16891745240590048, 'weighted_ngram_match_score': 0.20997924322893763, 'syntax_match_score': 0.5472972972972973, 'dataflow_match_score': 0.2875}</t>
+          <t>{'codebleu': 0.32842349823303385, 'ngram_match_score': 0.16891745240590048, 'weighted_ngram_match_score': 0.20997924322893763, 'syntax_match_score': 0.5472972972972973, 'dataflow_match_score': 0.3875}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.2_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3284234982330339</v>
+        <v>0.3190484982330338</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.32842349823303385, 'ngram_match_score': 0.16891745240590048, 'weighted_ngram_match_score': 0.20997924322893763, 'syntax_match_score': 0.5472972972972973, 'dataflow_match_score': 0.3875}</t>
+          <t>{'codebleu': 0.31904849823303383, 'ngram_match_score': 0.16891745240590048, 'weighted_ngram_match_score': 0.20997924322893763, 'syntax_match_score': 0.5472972972972973, 'dataflow_match_score': 0.35}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
